--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.924</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.562</v>
+        <v>-7.627000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.685999999999998</v>
+        <v>-7.872</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.134</v>
+        <v>-12.525</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.972</v>
+        <v>-20.091</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.129999999999999</v>
+        <v>-8.297999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -746,12 +746,12 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.378</v>
+        <v>-7.870000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.628</v>
+        <v>-20.808</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,18 +768,18 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.236</v>
+        <v>5.572000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.622</v>
+        <v>-7.581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.824</v>
+        <v>-21.63</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.812</v>
+        <v>5.548999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.366</v>
+        <v>7.431000000000002</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.654000000000001</v>
+        <v>5.655999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.481999999999999</v>
+        <v>-7.969999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.58</v>
+        <v>5.48</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.994</v>
+        <v>6.269</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.724</v>
+        <v>-11.589</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.078</v>
+        <v>5.280000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.976</v>
+        <v>-20.888</v>
       </c>
       <c r="B53" t="n">
-        <v>7.603999999999999</v>
+        <v>6.704000000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.024</v>
+        <v>5.197</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.494</v>
+        <v>-13.639</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1222,12 +1222,12 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.1</v>
+        <v>-7.607000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.37</v>
+        <v>-22.178</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.202</v>
+        <v>-22.461</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.250000000000002</v>
+        <v>-8.052000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.496</v>
+        <v>-10.76</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.442</v>
+        <v>-7.290000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.678</v>
+        <v>-21.53</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.698</v>
+        <v>4.935</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.186</v>
+        <v>-7.958999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.002</v>
+        <v>-21.186</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.79</v>
+        <v>-12.033</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.174</v>
+        <v>-22.08</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.912000000000001</v>
+        <v>5.197</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,13 +1650,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.808</v>
+        <v>-8.004000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.702</v>
+        <v>-7.597</v>
       </c>
     </row>
     <row r="89">
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.24</v>
+        <v>-11.072</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.696</v>
+        <v>-21.598</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.684</v>
+        <v>-11.945</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-11.724</v>
+        <v>-11.199</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.178</v>
+        <v>-7.295000000000002</v>
       </c>
     </row>
     <row r="101">
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.456</v>
+        <v>5.197</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
